--- a/biology/Médecine/Panchakarma/Panchakarma.xlsx
+++ b/biology/Médecine/Panchakarma/Panchakarma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Panchakarma (IAST pañcakarma), du sanskrit pancha (cinq) et Karma (action), est un processus de purification et de réjuvénation[1] en cinq étapes utilisé dans l'Ayurveda, une forme de médecine traditionnelle originaire de l'Inde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Panchakarma (IAST pañcakarma), du sanskrit pancha (cinq) et Karma (action), est un processus de purification et de réjuvénation en cinq étapes utilisé dans l'Ayurveda, une forme de médecine traditionnelle originaire de l'Inde.
 L'Ayurveda conseille une détoxification périodique à chaque changement de saison. Une cure peut s'étendre de quelques jours à plusieurs semaines et selon la condition du patient, le type de vaidya (le médecin ayurvédique) et la tradition à laquelle il appartient (Ayurveda du Nord ou Ayurveda du Sud), diverses méthodes peuvent être appliquées qui auraient le pouvoir de drainer les toxines et de les éliminer ensuite par la peau et le système digestif.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Les cinq étapes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Snehana[2] (l'ingestion de beurre clarifié) et plus tard Virechana (une purge légère) sont censés permettre aux toxines de se détacher progressivement des cellules ;
-Abhyanga[3] (le massage à l'huile) est supposé faire remonter ces toxines à la surface au moyen de techniques de massage adaptées données par des techniciens expérimentés ;
-Svedana (la sudation) et Basti [4] (un lavement léger) est supposé définitivement évacuer ces toxines vers l'extérieur.
-Selon la condition du patient, des techniques supplémentaires peuvent s'ajouter au Panchakarma « de base » : Nasya par exemple, est censé renforcer la force vitale (le prana) par l'oléation des sinus, ces derniers étant considérés comme « la porte du cerveau ». Shirodhara (en), au cours duquel un mince filet d'huile tiède[5] s'écoule en continu sur le front du patient allongé, est très souvent utilisé pour les désordres nerveux et est réputé procurer un profond sentiment de bien-être. Pattra Potali, un type de sudation, est supposé traiter entre autres les problèmes d'articulations.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Snehana (l'ingestion de beurre clarifié) et plus tard Virechana (une purge légère) sont censés permettre aux toxines de se détacher progressivement des cellules ;
+Abhyanga (le massage à l'huile) est supposé faire remonter ces toxines à la surface au moyen de techniques de massage adaptées données par des techniciens expérimentés ;
+Svedana (la sudation) et Basti  (un lavement léger) est supposé définitivement évacuer ces toxines vers l'extérieur.
+Selon la condition du patient, des techniques supplémentaires peuvent s'ajouter au Panchakarma « de base » : Nasya par exemple, est censé renforcer la force vitale (le prana) par l'oléation des sinus, ces derniers étant considérés comme « la porte du cerveau ». Shirodhara (en), au cours duquel un mince filet d'huile tiède s'écoule en continu sur le front du patient allongé, est très souvent utilisé pour les désordres nerveux et est réputé procurer un profond sentiment de bien-être. Pattra Potali, un type de sudation, est supposé traiter entre autres les problèmes d'articulations.
 </t>
         </is>
       </c>
